--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="13420"/>
+    <workbookView windowWidth="27900" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -70,6 +70,12 @@
 </t>
   </si>
   <si>
+    <t>前端:行内元素,块级元素</t>
+  </si>
+  <si>
+    <t>前端:前端跨页面通信</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -257,10 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -308,8 +314,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,9 +324,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,54 +361,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,9 +377,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,13 +394,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -422,31 +421,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,25 +479,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,25 +635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,115 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,6 +658,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -673,230 +753,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1260,7 +1266,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1329,7 +1335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1341,6 +1347,12 @@
       </c>
       <c r="D4" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1368,7 +1380,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{473fcf9d-98f9-48c8-bfce-117600499754}</x14:id>
+          <x14:id>{d330fa21-733c-4651-9b58-4f9ba193ca93}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1380,7 +1392,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{473fcf9d-98f9-48c8-bfce-117600499754}">
+          <x14:cfRule type="dataBar" id="{d330fa21-733c-4651-9b58-4f9ba193ca93}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1419,19 +1431,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:5">
@@ -1439,13 +1451,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1456,13 +1468,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -1473,13 +1485,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1490,10 +1502,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1504,10 +1516,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1518,13 +1530,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1535,13 +1547,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1552,13 +1564,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1569,10 +1581,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -1602,16 +1614,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1619,13 +1631,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1633,13 +1645,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1647,13 +1659,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1661,13 +1673,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1675,10 +1687,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -1686,13 +1698,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1700,21 +1712,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13420"/>
+    <workbookView windowWidth="27940" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -76,6 +76,15 @@
     <t>前端:前端跨页面通信</t>
   </si>
   <si>
+    <t>1.10-1.16</t>
+  </si>
+  <si>
+    <t>前端:
+1、hash模式和 history模式
+2、DOM树
+3、Javascript事件模型</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -263,10 +272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -308,38 +317,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -353,17 +375,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,82 +459,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,19 +488,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,151 +596,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +667,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -672,6 +714,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,15 +759,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -719,190 +767,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,7 +1275,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1335,7 +1344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1348,11 +1357,25 @@
       <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1380,7 +1403,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d330fa21-733c-4651-9b58-4f9ba193ca93}</x14:id>
+          <x14:id>{6585e692-f938-4833-84d9-c3c378cfea81}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1392,7 +1415,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d330fa21-733c-4651-9b58-4f9ba193ca93}">
+          <x14:cfRule type="dataBar" id="{6585e692-f938-4833-84d9-c3c378cfea81}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1431,19 +1454,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:5">
@@ -1451,13 +1474,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1468,13 +1491,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -1485,13 +1508,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1502,10 +1525,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1516,10 +1539,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1530,13 +1553,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1547,13 +1570,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1564,13 +1587,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1581,10 +1604,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -1614,16 +1637,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1631,13 +1654,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1645,13 +1668,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1659,13 +1682,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1673,13 +1696,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1687,10 +1710,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -1698,13 +1721,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1712,21 +1735,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="13420"/>
+    <workbookView windowWidth="27920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -85,6 +85,10 @@
 3、Javascript事件模型</t>
   </si>
   <si>
+    <t>前端:
+1、浏览器缓存</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -273,9 +277,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -330,22 +334,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,9 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -375,79 +364,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,7 +382,90 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,13 +498,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,49 +600,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,97 +642,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,17 +707,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,15 +731,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -753,6 +742,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,142 +774,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1275,7 +1279,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1370,12 +1374,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1403,7 +1413,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6585e692-f938-4833-84d9-c3c378cfea81}</x14:id>
+          <x14:id>{69be132b-a2f1-449c-b868-42c25ee74d66}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1415,7 +1425,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6585e692-f938-4833-84d9-c3c378cfea81}">
+          <x14:cfRule type="dataBar" id="{69be132b-a2f1-449c-b868-42c25ee74d66}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1454,19 +1464,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:5">
@@ -1474,13 +1484,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1491,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -1508,13 +1518,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1525,10 +1535,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1539,10 +1549,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1553,13 +1563,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1570,13 +1580,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1587,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1604,10 +1614,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -1637,16 +1647,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1654,13 +1664,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1668,13 +1678,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1682,13 +1692,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1696,13 +1706,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1710,10 +1720,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -1721,13 +1731,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1735,21 +1745,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27920" windowHeight="13420"/>
+    <workbookView windowWidth="27940" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -89,6 +89,23 @@
 1、浏览器缓存</t>
   </si>
   <si>
+    <t>前端:
+1、浏览器架构</t>
+  </si>
+  <si>
+    <t>前端:
+1、浏览器工作原理</t>
+  </si>
+  <si>
+    <t>1.17-1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前端:
+1、前端性能优化指标RAIL
+2、事件模型
+3、EventTarget 接口 </t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -277,9 +294,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -321,14 +338,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,6 +371,14 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,26 +390,93 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,97 +487,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -492,19 +509,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,31 +659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,115 +671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,15 +688,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -707,15 +715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -727,6 +726,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,6 +765,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -760,162 +788,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -936,8 +953,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -945,17 +965,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1279,61 +1296,62 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="16.125" style="5"/>
-    <col min="9" max="9" width="16.125" style="6"/>
-    <col min="10" max="16384" width="16.125" style="5"/>
+    <col min="1" max="1" width="16.125" style="5"/>
+    <col min="2" max="8" width="16.125" style="6"/>
+    <col min="9" max="9" width="16.125" style="7"/>
+    <col min="10" max="16384" width="16.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" s="4" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1341,10 +1359,10 @@
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1352,40 +1370,63 @@
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1413,7 +1454,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{69be132b-a2f1-449c-b868-42c25ee74d66}</x14:id>
+          <x14:id>{47dd81eb-bbc2-4f34-89d1-08fef740683e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1425,7 +1466,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{69be132b-a2f1-449c-b868-42c25ee74d66}">
+          <x14:cfRule type="dataBar" id="{47dd81eb-bbc2-4f34-89d1-08fef740683e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1464,19 +1505,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:5">
@@ -1484,13 +1525,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1501,13 +1542,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -1518,13 +1559,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1535,10 +1576,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1549,10 +1590,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1563,13 +1604,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1580,13 +1621,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1597,13 +1638,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1614,10 +1655,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -1647,16 +1688,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1664,13 +1705,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1678,13 +1719,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1692,13 +1733,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1706,13 +1747,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1720,10 +1761,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -1731,13 +1772,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
         <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1745,21 +1786,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="13420"/>
+    <workbookView windowWidth="27920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -106,6 +106,11 @@
 3、EventTarget 接口 </t>
   </si>
   <si>
+    <t>前端: 
+1.事件—event对象
+2.重排和重绘</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -294,9 +299,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -338,7 +343,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,10 +393,88 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,123 +487,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -509,13 +514,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,157 +640,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,7 +699,51 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -730,26 +779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -764,175 +793,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1296,7 +1301,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1418,7 +1423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1427,6 +1432,9 @@
       </c>
       <c r="C6" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1454,7 +1462,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{47dd81eb-bbc2-4f34-89d1-08fef740683e}</x14:id>
+          <x14:id>{0962dfd3-a286-4a75-b12c-4b0758f894b8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1466,7 +1474,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{47dd81eb-bbc2-4f34-89d1-08fef740683e}">
+          <x14:cfRule type="dataBar" id="{0962dfd3-a286-4a75-b12c-4b0758f894b8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1505,19 +1513,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:5">
@@ -1525,13 +1533,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1542,13 +1550,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -1559,13 +1567,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1576,10 +1584,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1590,10 +1598,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1604,13 +1612,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1621,13 +1629,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1638,13 +1646,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1655,10 +1663,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -1688,16 +1696,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1705,13 +1713,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1719,13 +1727,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1733,13 +1741,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1747,13 +1755,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1761,10 +1769,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -1772,13 +1780,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1786,21 +1794,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27920" windowHeight="13420"/>
+    <workbookView windowWidth="27960" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -111,6 +111,10 @@
 2.重排和重绘</t>
   </si>
   <si>
+    <t>前端:
+1、鼠标事件,键盘事件,进度事件,表单事件</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -298,9 +302,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -343,14 +347,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +370,112 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,74 +489,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,52 +496,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -514,13 +518,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,19 +632,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,127 +668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,11 +700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,11 +724,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,6 +780,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -748,124 +797,79 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -874,70 +878,70 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,7 +1305,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1423,7 +1427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1435,6 +1439,9 @@
       </c>
       <c r="D6" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1462,7 +1469,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0962dfd3-a286-4a75-b12c-4b0758f894b8}</x14:id>
+          <x14:id>{23a3ec02-00b0-4d58-85c3-a4807cbd40cb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1474,7 +1481,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0962dfd3-a286-4a75-b12c-4b0758f894b8}">
+          <x14:cfRule type="dataBar" id="{23a3ec02-00b0-4d58-85c3-a4807cbd40cb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1513,19 +1520,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:5">
@@ -1533,13 +1540,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1550,13 +1557,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -1567,13 +1574,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1584,10 +1591,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1598,10 +1605,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1612,13 +1619,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1629,13 +1636,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1646,13 +1653,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1663,10 +1670,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -1696,16 +1703,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1713,13 +1720,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1727,13 +1734,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1741,13 +1748,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1755,13 +1762,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1769,10 +1776,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -1780,13 +1787,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1794,21 +1801,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="27920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -115,6 +115,10 @@
 1、鼠标事件,键盘事件,进度事件,表单事件</t>
   </si>
   <si>
+    <t>前端:
+ 触摸事件,拖拽事件</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -302,8 +306,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -347,9 +351,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,6 +390,91 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,29 +486,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -400,98 +495,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,181 +516,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,6 +701,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -725,21 +744,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -750,15 +754,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,8 +776,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,151 +792,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1305,7 +1309,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1427,7 +1431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:5">
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1442,6 +1446,9 @@
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1469,7 +1476,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{23a3ec02-00b0-4d58-85c3-a4807cbd40cb}</x14:id>
+          <x14:id>{288822c6-9e33-4c1f-bfe9-8719f8f17154}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1481,7 +1488,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{23a3ec02-00b0-4d58-85c3-a4807cbd40cb}">
+          <x14:cfRule type="dataBar" id="{288822c6-9e33-4c1f-bfe9-8719f8f17154}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1520,19 +1527,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:5">
@@ -1540,13 +1547,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1557,13 +1564,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -1574,13 +1581,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1591,10 +1598,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1605,10 +1612,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1619,13 +1626,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1636,13 +1643,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1653,13 +1660,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1670,10 +1677,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -1703,16 +1710,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1720,13 +1727,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1734,13 +1741,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1748,13 +1755,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1762,13 +1769,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1776,10 +1783,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -1787,13 +1794,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1801,21 +1808,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27920" windowHeight="13420"/>
+    <workbookView windowWidth="27940" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -119,6 +119,10 @@
  触摸事件,拖拽事件</t>
   </si>
   <si>
+    <t>前端:
+GlobalEventHandlers 接口</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -306,10 +310,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -357,22 +361,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,8 +383,92 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -401,22 +482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -425,46 +490,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,29 +504,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -522,55 +526,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,115 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,21 +705,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -737,23 +726,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,20 +758,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,148 +808,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1309,7 +1313,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1431,7 +1435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1449,6 +1453,9 @@
       </c>
       <c r="F6" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1476,7 +1483,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{288822c6-9e33-4c1f-bfe9-8719f8f17154}</x14:id>
+          <x14:id>{c5f360e0-c99a-4fa8-b89f-4bfcb26e0e53}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1488,7 +1495,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{288822c6-9e33-4c1f-bfe9-8719f8f17154}">
+          <x14:cfRule type="dataBar" id="{c5f360e0-c99a-4fa8-b89f-4bfcb26e0e53}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1527,19 +1534,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:5">
@@ -1547,13 +1554,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1564,13 +1571,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -1581,13 +1588,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1598,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1612,10 +1619,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1626,13 +1633,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1643,13 +1650,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1660,13 +1667,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1677,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -1710,16 +1717,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1727,13 +1734,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1741,13 +1748,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1755,13 +1762,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1769,13 +1776,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1783,10 +1790,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -1794,13 +1801,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1808,21 +1815,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="13420"/>
+    <workbookView windowWidth="27920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -123,6 +123,19 @@
 GlobalEventHandlers 接口</t>
   </si>
   <si>
+    <t>1.24-1.30</t>
+  </si>
+  <si>
+    <t>前端:
+前端性能优化之白屏时间</t>
+  </si>
+  <si>
+    <t>过年</t>
+  </si>
+  <si>
+    <t>1.31-2.06</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -310,10 +323,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -355,9 +368,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,8 +403,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,14 +420,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,21 +480,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,16 +488,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,46 +512,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,25 +533,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,49 +623,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,97 +677,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,21 +718,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -736,7 +734,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,175 +818,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1313,7 +1326,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1435,7 +1448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1456,6 +1469,55 @@
       </c>
       <c r="G6" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1483,7 +1545,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c5f360e0-c99a-4fa8-b89f-4bfcb26e0e53}</x14:id>
+          <x14:id>{da08e53a-0d2c-43d8-9c65-86a8b39d9655}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1495,7 +1557,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c5f360e0-c99a-4fa8-b89f-4bfcb26e0e53}">
+          <x14:cfRule type="dataBar" id="{da08e53a-0d2c-43d8-9c65-86a8b39d9655}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1534,19 +1596,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:5">
@@ -1554,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1571,13 +1633,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -1588,13 +1650,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1605,10 +1667,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1619,10 +1681,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1633,13 +1695,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1650,13 +1712,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1667,13 +1729,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1684,10 +1746,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -1717,16 +1779,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1734,13 +1796,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1748,13 +1810,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1762,13 +1824,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1776,13 +1838,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1790,10 +1852,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -1801,13 +1863,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
         <v>71</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1815,21 +1877,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -130,6 +130,10 @@
 前端性能优化之白屏时间</t>
   </si>
   <si>
+    <t>前端:
+chrome调试技巧</t>
+  </si>
+  <si>
     <t>过年</t>
   </si>
   <si>
@@ -323,8 +327,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -388,6 +392,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -396,10 +438,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,98 +500,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -517,6 +514,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -539,67 +543,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,37 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,61 +711,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,9 +736,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,17 +769,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,17 +793,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -818,145 +807,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1481,43 +1485,49 @@
       <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1545,7 +1555,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{da08e53a-0d2c-43d8-9c65-86a8b39d9655}</x14:id>
+          <x14:id>{fe4d1c76-9888-4060-b4ad-90bb83de1487}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1557,7 +1567,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{da08e53a-0d2c-43d8-9c65-86a8b39d9655}">
+          <x14:cfRule type="dataBar" id="{fe4d1c76-9888-4060-b4ad-90bb83de1487}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1596,19 +1606,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:5">
@@ -1616,13 +1626,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1633,13 +1643,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -1650,13 +1660,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1667,10 +1677,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1681,10 +1691,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1695,13 +1705,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1712,13 +1722,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1729,13 +1739,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1746,10 +1756,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -1779,16 +1789,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1796,13 +1806,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1810,13 +1820,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1824,13 +1834,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1838,13 +1848,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
         <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1852,10 +1862,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -1863,13 +1873,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1877,21 +1887,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27920" windowHeight="13420"/>
+    <workbookView windowWidth="27860" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 0
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 10
+4、每天学习英文20分钟 5
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0</t>
   </si>
   <si>
     <t>1.03-1.09</t>
@@ -97,6 +105,14 @@
 1、浏览器工作原理</t>
   </si>
   <si>
+    <t>1、每天至少半小时健身塑形 0
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 15
+4、每天学习英文20分钟 2
+5、12点前睡觉 5
+6、每周练习吉他2次，每次至少一小时 0</t>
+  </si>
+  <si>
     <t>1.17-1.23</t>
   </si>
   <si>
@@ -137,9 +153,20 @@
     <t>过年</t>
   </si>
   <si>
+    <t>1、每天至少半小时健身塑形 0
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 0
+4、每天学习英文20分钟 0
+5、12点前睡觉 10
+6、每周练习吉他2次，每次至少一小时 0</t>
+  </si>
+  <si>
     <t>1.31-2.06</t>
   </si>
   <si>
+    <t>2.07-2.13</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -155,51 +182,60 @@
     <t>重要程度（满分5分）</t>
   </si>
   <si>
-    <t>身体健康</t>
-  </si>
-  <si>
-    <t>1.打羽毛球锻炼身体
-2.健身塑形</t>
-  </si>
-  <si>
-    <t>1.打羽毛球
-2.早睡，早起养成好习惯
-3.练习帕梅拉或者美丽芭蕾（每周2次）</t>
+    <t>身体健康,改善体态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.健身塑形
+2.运动
+3.慢慢改善咽喉炎
+4.体重保持在90-95之间
+</t>
+  </si>
+  <si>
+    <t>1.每天半小瑜伽或者运动
+2.每周打一次羽毛球
+3.早睡，12点前必须睡觉,运动
+4.控制饮食,多运动</t>
   </si>
   <si>
     <t>事业更上一层楼</t>
   </si>
   <si>
     <t xml:space="preserve">
-1.存款10万+
-2.月薪达到20K
+1.存20万
+2.争取加薪或者跳槽外企
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-1.降低每月消费
-2.学会理财投资
-1.月薪要达到20K,需要跳槽
-2.学习前端知识，巩固技能
-3.开发自己的项目   √</t>
-  </si>
-  <si>
-    <t>孝敬父母</t>
-  </si>
-  <si>
-    <t>1.给爸爸攒钱换车
-2.为家里添置家具
-3.提高家人生活质量</t>
-  </si>
-  <si>
-    <t>1.攒钱</t>
+1.合理消费,做副业接单赚钱
+2.学习前端知识，巩固技能,每天英语学习20分钟</t>
+  </si>
+  <si>
+    <t>经营生活</t>
+  </si>
+  <si>
+    <t>1.性格改变,少玻璃心
+2.多包容
+3.提升外在形象
+4.尽量不浪费时间做无意义的事情
+5.和黎涛计划进入下一阶段</t>
+  </si>
+  <si>
+    <t>1.改掉自己不说话,生闷气的毛病,多表达,多沟通,要求耐心
+2.学会多角度看事情,包容别人和自己
+3. 打扮自己，皮肤保养，穿有质感的衣服,注意形象
+4.不玩游戏,每天不操过20分钟刷娱乐视频的时间
+5.和黎涛及其家人商量订婚事项,经营生活</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
   <si>
     <t>最少阅读24本书籍</t>
   </si>
   <si>
-    <t>1.每天晚上睡前阅读30分钟以上
-2.利用零碎时间进行阅读（比如：午休等）</t>
+    <t>1.每天睡前阅读30分钟及以上</t>
   </si>
   <si>
     <t>做职业规划</t>
@@ -213,15 +249,12 @@
     <t>软技能提升</t>
   </si>
   <si>
-    <t>1.学习英语
-2.公共软件的使用
-3.拿到驾照</t>
-  </si>
-  <si>
-    <t>1.尽可能多的记住生活中使用的英文
-2.创造英文使用环境（读英文技术文章，听英文电台）
-3.利用空余时间学习办公软件的使用（world,PPT,Excel）
-4.尽快练车考驾照</t>
+    <t>1.学习英语</t>
+  </si>
+  <si>
+    <t>1.每天英语学习20分钟
+2.看英文技术文章
+3.生活中尽量给自己创造英文使用环境</t>
   </si>
   <si>
     <t>兴趣爱好</t>
@@ -247,13 +280,6 @@
 2.认识更多有趣的人和事</t>
   </si>
   <si>
-    <t>经营生活</t>
-  </si>
-  <si>
-    <t>1.更了解他，让2人更加合拍，共同规划未来
-2.打扮自己，皮肤保养，身材锻炼</t>
-  </si>
-  <si>
     <t>事件</t>
   </si>
   <si>
@@ -263,63 +289,60 @@
     <t>总分</t>
   </si>
   <si>
+    <t>健身塑形</t>
+  </si>
+  <si>
+    <t>每周至少一次打羽毛球
+每天至少半小时美丽芭蕾天鹅臂
+或者练习帕梅拉,或者运动</t>
+  </si>
+  <si>
+    <t>20分</t>
+  </si>
+  <si>
     <t>阅读书籍</t>
   </si>
   <si>
     <t>每天半小时</t>
   </si>
   <si>
-    <t>20分</t>
-  </si>
-  <si>
     <t>学习前端知识</t>
   </si>
   <si>
     <t>每天</t>
   </si>
   <si>
-    <t>学习理财知识</t>
-  </si>
-  <si>
-    <t>每周3小时</t>
+    <t>学习英文</t>
+  </si>
+  <si>
+    <t>每天20分钟</t>
+  </si>
+  <si>
+    <t>15分</t>
+  </si>
+  <si>
+    <t>12点前睡觉</t>
+  </si>
+  <si>
+    <t>练习吉他</t>
+  </si>
+  <si>
+    <t>每周2次，2小时</t>
   </si>
   <si>
     <t>10分</t>
   </si>
   <si>
-    <t>练习吉他</t>
-  </si>
-  <si>
-    <t>每周2次，2小时</t>
-  </si>
-  <si>
-    <t>11点半之后不玩手机，12点前睡觉</t>
-  </si>
-  <si>
-    <t>健身塑形</t>
-  </si>
-  <si>
-    <t>打羽毛球
-每周至少2次美丽芭蕾天鹅臂
-或者练习帕梅拉</t>
-  </si>
-  <si>
-    <t>饮食健康清淡</t>
-  </si>
-  <si>
-    <t>除了改善伙食，饮食尽量健康清淡</t>
-  </si>
-  <si>
     <t>总结</t>
   </si>
   <si>
-    <t>1、每天阅读书籍半小时
-2、学习前端知识
-3、每周学习理财知识3小时
-4、每周练习吉他2次，每次至少一小时
-5、每天11点之后不玩手机，12点前睡觉
-6.健身塑形
-7.饮食健康清淡</t>
+    <t xml:space="preserve">1、每天至少半小时健身塑形
+2、每天阅读书籍半小时
+3、每天学习前端知识
+4、每天学习英文20分钟
+5、12点前睡觉
+6、每周练习吉他2次，每次至少一小时
+</t>
   </si>
 </sst>
 </file>
@@ -328,9 +351,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -385,6 +408,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -392,8 +438,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +522,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -415,106 +538,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -543,25 +566,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +698,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,121 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,11 +759,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,15 +801,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,159 +835,155 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1329,8 +1352,8 @@
   <sheetPr/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1389,7 +1412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1399,10 +1422,16 @@
       <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
+      <c r="I3" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>12</v>
@@ -1411,13 +1440,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>12</v>
@@ -1425,25 +1454,31 @@
       <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:8">
+      <c r="I4" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>12</v>
@@ -1451,83 +1486,112 @@
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:8">
+      <c r="I5" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:8">
+      <c r="I6" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1555,7 +1619,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fe4d1c76-9888-4060-b4ad-90bb83de1487}</x14:id>
+          <x14:id>{4aed777a-9102-453e-b504-7107b7698863}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1567,7 +1631,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fe4d1c76-9888-4060-b4ad-90bb83de1487}">
+          <x14:cfRule type="dataBar" id="{4aed777a-9102-453e-b504-7107b7698863}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1588,10 +1652,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1606,81 +1670,84 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" ht="51" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" ht="84" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="135" spans="1:5">
+    <row r="3" ht="101" spans="1:5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="152" spans="1:5">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" ht="51" spans="1:5">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="1:5">
+    <row r="5" ht="17" spans="1:5">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1688,30 +1755,30 @@
     </row>
     <row r="6" ht="68" spans="1:5">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="101" spans="1:5">
+    <row r="7" ht="51" spans="1:5">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1719,16 +1786,16 @@
     </row>
     <row r="8" ht="51" spans="1:5">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1736,32 +1803,18 @@
     </row>
     <row r="9" ht="51" spans="1:5">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="51" spans="1:5">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1775,13 +1828,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
@@ -1789,30 +1842,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" ht="51" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1820,13 +1873,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1834,13 +1887,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1848,13 +1901,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1862,46 +1915,35 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" ht="51" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" ht="152" spans="1:2">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="1" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="8" ht="135" spans="1:2">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27860" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="27920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -219,14 +219,16 @@
 2.多包容
 3.提升外在形象
 4.尽量不浪费时间做无意义的事情
-5.和黎涛计划进入下一阶段</t>
-  </si>
-  <si>
-    <t>1.改掉自己不说话,生闷气的毛病,多表达,多沟通,要求耐心
-2.学会多角度看事情,包容别人和自己
+5.和黎涛计划进入下一阶段
+6.孝顺父母</t>
+  </si>
+  <si>
+    <t>1.改掉自己思虑过多,不说话,生闷气的毛病,多表达,多沟通,要有耐心
+2.学会多站在别人的立场看事情,包容别人和自己
 3. 打扮自己，皮肤保养，穿有质感的衣服,注意形象
 4.不玩游戏,每天不操过20分钟刷娱乐视频的时间
-5.和黎涛及其家人商量订婚事项,经营生活</t>
+5.和黎涛及其家人商量订婚事项,经营生活
+6.在自己能力范围内,孝顺父母</t>
   </si>
   <si>
     <t>阅读</t>
@@ -351,8 +353,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -395,16 +397,123 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,23 +525,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,99 +541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,37 +568,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,13 +712,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,115 +736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,17 +753,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,15 +770,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,6 +804,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -837,159 +832,166 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1352,7 +1354,7 @@
   <sheetPr/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1619,7 +1621,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4aed777a-9102-453e-b504-7107b7698863}</x14:id>
+          <x14:id>{ee2a572d-2dd6-45fd-af4f-ccb7b994c667}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1631,7 +1633,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4aed777a-9102-453e-b504-7107b7698863}">
+          <x14:cfRule type="dataBar" id="{ee2a572d-2dd6-45fd-af4f-ccb7b994c667}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1654,7 +1656,7 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1719,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="152" spans="1:5">
+    <row r="4" s="3" customFormat="1" ht="185" spans="1:5">
       <c r="A4" s="3">
         <v>4</v>
       </c>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27920" windowHeight="13420"/>
+    <workbookView windowWidth="27940" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -167,6 +167,14 @@
     <t>2.07-2.13</t>
   </si>
   <si>
+    <t>前端:
+大量图片加载优化</t>
+  </si>
+  <si>
+    <t>前端:
+动画性能</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -193,7 +201,7 @@
   </si>
   <si>
     <t>1.每天半小瑜伽或者运动
-2.每周打一次羽毛球
+2.每周打一次羽毛球或者跑步
 3.早睡，12点前必须睡觉,运动
 4.控制饮食,多运动</t>
   </si>
@@ -267,7 +275,7 @@
   </si>
   <si>
     <t>1.每周至少2次吉他练习
-2.每周打一次羽毛球</t>
+2.每周打一次羽毛球或者跑步</t>
   </si>
   <si>
     <t>交友</t>
@@ -352,10 +360,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -403,10 +411,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,18 +486,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,23 +525,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,81 +554,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -568,13 +576,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,157 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +762,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,6 +782,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -789,21 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -811,6 +813,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,168 +841,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1355,7 +1363,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1591,9 +1599,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:1">
+    <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1621,7 +1635,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ee2a572d-2dd6-45fd-af4f-ccb7b994c667}</x14:id>
+          <x14:id>{8e7092df-2595-4ea4-87cc-8962417cfb5c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1633,7 +1647,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ee2a572d-2dd6-45fd-af4f-ccb7b994c667}">
+          <x14:cfRule type="dataBar" id="{8e7092df-2595-4ea4-87cc-8962417cfb5c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1656,8 +1670,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1672,19 +1686,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="84" spans="1:5">
@@ -1692,13 +1706,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1709,13 +1723,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -1726,13 +1740,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1743,13 +1757,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1760,10 +1774,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1774,13 +1788,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1791,13 +1805,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1808,13 +1822,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1844,16 +1858,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:4">
@@ -1861,13 +1875,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1875,13 +1889,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1889,13 +1903,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1903,13 +1917,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1917,13 +1931,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1931,21 +1945,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="135" spans="1:2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="13420"/>
+    <workbookView windowWidth="27920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -57,12 +57,14 @@
     <t>/</t>
   </si>
   <si>
-    <t>1、每天至少半小时健身塑形 0
+    <t xml:space="preserve">1、每天至少半小时健身塑形 0
 2、每天阅读书籍半小时 0
 3、每天学习前端知识 10
 4、每天学习英文20分钟 5
 5、12点前睡觉 0
-6、每周练习吉他2次，每次至少一小时 0</t>
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少3小时 0
+</t>
   </si>
   <si>
     <t>1.03-1.09</t>
@@ -110,7 +112,8 @@
 3、每天学习前端知识 15
 4、每天学习英文20分钟 2
 5、12点前睡觉 5
-6、每周练习吉他2次，每次至少一小时 0</t>
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少3小时 0</t>
   </si>
   <si>
     <t>1.17-1.23</t>
@@ -158,7 +161,8 @@
 3、每天学习前端知识 0
 4、每天学习英文20分钟 0
 5、12点前睡觉 10
-6、每周练习吉他2次，每次至少一小时 0</t>
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少3小时 0</t>
   </si>
   <si>
     <t>1.31-2.06</t>
@@ -173,6 +177,34 @@
   <si>
     <t>前端:
 动画性能</t>
+  </si>
+  <si>
+    <t>前端:
+渲染合成层</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 0
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 5
+4、每天学习英文20分钟 0
+5、12点前睡觉 5
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少3小时 0</t>
+  </si>
+  <si>
+    <t>2.14-2.20</t>
+  </si>
+  <si>
+    <t>前端(输入url到渲染)
+健身(周六野40分钟)
+英语(听单词)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前端: Redux基础
+理财: 如何看K线图(15分钟)
+健身(美丽芭蕾天鹅臂20分钟)
+英语(听小王子)
+</t>
   </si>
   <si>
     <t>序号</t>
@@ -216,7 +248,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-1.合理消费,做副业接单赚钱
+1.合理消费,做副业接单赚钱,投资理财,每周学习理财3小时
 2.学习前端知识，巩固技能,每天英语学习20分钟</t>
   </si>
   <si>
@@ -328,7 +360,7 @@
     <t>每天20分钟</t>
   </si>
   <si>
-    <t>15分</t>
+    <t>10分</t>
   </si>
   <si>
     <t>12点前睡觉</t>
@@ -340,7 +372,10 @@
     <t>每周2次，2小时</t>
   </si>
   <si>
-    <t>10分</t>
+    <t>学习理财知识</t>
+  </si>
+  <si>
+    <t>每周3小时以上</t>
   </si>
   <si>
     <t>总结</t>
@@ -352,6 +387,7 @@
 4、每天学习英文20分钟
 5、12点前睡觉
 6、每周练习吉他2次，每次至少一小时
+7、每周学习理财,每周至少3小时
 </t>
   </si>
 </sst>
@@ -360,10 +396,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -405,7 +441,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +457,58 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,25 +522,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,105 +590,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -570,13 +606,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,25 +708,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,85 +738,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,43 +774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,8 +797,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,37 +842,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,16 +866,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -858,148 +894,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1362,8 +1398,8 @@
   <sheetPr/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1599,7 +1635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:3">
+    <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1608,6 +1644,41 @@
       </c>
       <c r="C9" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1635,7 +1706,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8e7092df-2595-4ea4-87cc-8962417cfb5c}</x14:id>
+          <x14:id>{34741034-a233-4062-b4c7-d74f60d388a2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1647,7 +1718,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8e7092df-2595-4ea4-87cc-8962417cfb5c}">
+          <x14:cfRule type="dataBar" id="{34741034-a233-4062-b4c7-d74f60d388a2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1670,8 +1741,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1686,19 +1757,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="84" spans="1:5">
@@ -1706,30 +1777,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="101" spans="1:5">
+    <row r="3" ht="118" spans="1:5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -1740,13 +1811,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1757,13 +1828,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1774,10 +1845,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1788,13 +1859,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1805,13 +1876,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1822,13 +1893,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1844,13 +1915,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
@@ -1858,16 +1929,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:4">
@@ -1875,13 +1946,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1889,13 +1960,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1903,13 +1974,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1917,13 +1988,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1931,13 +2002,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1945,21 +2016,35 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" ht="135" spans="1:2">
-      <c r="A8" t="s">
         <v>84</v>
       </c>
+    </row>
+    <row r="8" ht="17" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" ht="152" spans="1:2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27920" windowHeight="13420"/>
+    <workbookView windowWidth="27860" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -63,7 +63,7 @@
 4、每天学习英文20分钟 5
 5、12点前睡觉 0
 6、每周练习吉他2次，每次至少一小时 0
-7、每周学习理财,每周至少3小时 0
+7、每周学习理财,每周至少2小时 0
 </t>
   </si>
   <si>
@@ -113,7 +113,7 @@
 4、每天学习英文20分钟 2
 5、12点前睡觉 5
 6、每周练习吉他2次，每次至少一小时 0
-7、每周学习理财,每周至少3小时 0</t>
+7、每周学习理财,每周至少2小时 0</t>
   </si>
   <si>
     <t>1.17-1.23</t>
@@ -162,7 +162,7 @@
 4、每天学习英文20分钟 0
 5、12点前睡觉 10
 6、每周练习吉他2次，每次至少一小时 0
-7、每周学习理财,每周至少3小时 0</t>
+7、每周学习理财,每周至少2小时 0</t>
   </si>
   <si>
     <t>1.31-2.06</t>
@@ -189,7 +189,7 @@
 4、每天学习英文20分钟 0
 5、12点前睡觉 5
 6、每周练习吉他2次，每次至少一小时 0
-7、每周学习理财,每周至少3小时 0</t>
+7、每周学习理财,每周至少2小时 0</t>
   </si>
   <si>
     <t>2.14-2.20</t>
@@ -202,9 +202,35 @@
   <si>
     <t xml:space="preserve">前端: Redux基础
 理财: 如何看K线图(15分钟)
-健身(美丽芭蕾天鹅臂20分钟)
-英语(听小王子)
+健身(美丽芭蕾天鹅臂30分钟)
 </t>
+  </si>
+  <si>
+    <t>前端:Redux
+健身(帕梅拉练背20分钟)</t>
+  </si>
+  <si>
+    <t>前端:Redux
+健身:(帕梅拉和脸部操30分钟)</t>
+  </si>
+  <si>
+    <t>健身:(帕梅拉和脸部操30分钟)
+吉他:练习1个半小时</t>
+  </si>
+  <si>
+    <t>健身:(帕梅拉和脸部操30分钟)</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 17
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 11
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 5
+7、每周学习理财,每周至少2小时 2</t>
+  </si>
+  <si>
+    <t>2.21-2.27</t>
   </si>
   <si>
     <t>序号</t>
@@ -248,7 +274,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-1.合理消费,做副业接单赚钱,投资理财,每周学习理财3小时
+1.合理消费,做副业接单赚钱,投资理财,每周学习理财2小时
 2.学习前端知识，巩固技能,每天英语学习20分钟</t>
   </si>
   <si>
@@ -307,7 +333,7 @@
   </si>
   <si>
     <t>1.每周至少2次吉他练习
-2.每周打一次羽毛球或者跑步</t>
+2.打羽毛球或者跑步</t>
   </si>
   <si>
     <t>交友</t>
@@ -334,8 +360,7 @@
     <t>健身塑形</t>
   </si>
   <si>
-    <t>每周至少一次打羽毛球
-每天至少半小时美丽芭蕾天鹅臂
+    <t>每天至少半小时美丽芭蕾天鹅臂
 或者练习帕梅拉,或者运动</t>
   </si>
   <si>
@@ -375,7 +400,7 @@
     <t>学习理财知识</t>
   </si>
   <si>
-    <t>每周3小时以上</t>
+    <t>每周2小时以上</t>
   </si>
   <si>
     <t>总结</t>
@@ -387,7 +412,7 @@
 4、每天学习英文20分钟
 5、12点前睡觉
 6、每周练习吉他2次，每次至少一小时
-7、每周学习理财,每周至少3小时
+7、每周学习理财,每周至少2小时
 </t>
   </si>
 </sst>
@@ -397,8 +422,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -447,6 +472,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -456,28 +550,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,9 +564,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,53 +581,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,24 +595,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,13 +631,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +739,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,31 +763,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,115 +805,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,17 +828,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,20 +861,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,163 +916,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1398,8 +1423,8 @@
   <sheetPr/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1667,7 +1692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -1679,6 +1704,29 @@
       </c>
       <c r="D10" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1706,7 +1754,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{34741034-a233-4062-b4c7-d74f60d388a2}</x14:id>
+          <x14:id>{06a5b434-19e3-4956-8ffd-3ee6bc652092}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1718,7 +1766,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{34741034-a233-4062-b4c7-d74f60d388a2}">
+          <x14:cfRule type="dataBar" id="{06a5b434-19e3-4956-8ffd-3ee6bc652092}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1741,8 +1789,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1757,19 +1805,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="84" spans="1:5">
@@ -1777,13 +1825,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1794,13 +1842,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -1811,13 +1859,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1828,13 +1876,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1845,10 +1893,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1859,13 +1907,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1876,13 +1924,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1893,13 +1941,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1918,7 +1966,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1929,30 +1977,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" ht="51" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" ht="34" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1960,13 +2008,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1974,13 +2022,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1988,13 +2036,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2002,13 +2050,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2016,13 +2064,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="17" spans="1:4">
@@ -2030,21 +2078,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27860" windowHeight="13420"/>
+    <workbookView windowWidth="27960" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -233,6 +233,47 @@
     <t>2.21-2.27</t>
   </si>
   <si>
+    <t>前端:Redux
+健身(周六野40分钟)</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 3
+2、每天阅读书籍半小时 0
+3、每天学习前端知识  3
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>2.28-3.06</t>
+  </si>
+  <si>
+    <t>前端:React
+健身(周六野40分钟)</t>
+  </si>
+  <si>
+    <t>前端:React</t>
+  </si>
+  <si>
+    <t>健身(周六野40分钟)</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 18
+2、每天阅读书籍半小时 0
+3、每天学习前端知识  8
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>3.07-3.13</t>
+  </si>
+  <si>
+    <t>健身(周六野30分钟)</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -421,10 +462,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -479,17 +520,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,11 +588,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,105 +656,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -631,79 +672,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,97 +840,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,16 +873,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,17 +923,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,156 +951,154 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1423,8 +1464,8 @@
   <sheetPr/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1432,7 +1473,8 @@
     <col min="1" max="1" width="16.125" style="5"/>
     <col min="2" max="8" width="16.125" style="6"/>
     <col min="9" max="9" width="16.125" style="7"/>
-    <col min="10" max="16384" width="16.125" style="6"/>
+    <col min="10" max="10" width="30.9464285714286" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="16.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
@@ -1724,9 +1766,82 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:1">
+    <row r="11" customHeight="1" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>49</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1754,7 +1869,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{06a5b434-19e3-4956-8ffd-3ee6bc652092}</x14:id>
+          <x14:id>{2285250d-2835-4209-a321-fc509a8332b5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1766,7 +1881,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{06a5b434-19e3-4956-8ffd-3ee6bc652092}">
+          <x14:cfRule type="dataBar" id="{2285250d-2835-4209-a321-fc509a8332b5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1793,7 +1908,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
@@ -1805,149 +1920,149 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" ht="84" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" ht="75" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="118" spans="1:5">
+    <row r="3" ht="87" spans="1:5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="185" spans="1:5">
+    <row r="4" s="3" customFormat="1" ht="149" spans="1:5">
       <c r="A4" s="3">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:5">
+    <row r="5" ht="13" spans="1:5">
       <c r="A5" s="3">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="68" spans="1:5">
+    <row r="6" ht="62" spans="1:5">
       <c r="A6" s="3">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="51" spans="1:5">
+    <row r="7" ht="50" spans="1:5">
       <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="51" spans="1:5">
+    <row r="8" ht="38" spans="1:5">
       <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="51" spans="1:5">
+    <row r="9" ht="50" spans="1:5">
       <c r="A9" s="3">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1966,10 +2081,10 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
@@ -1977,30 +2092,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" ht="34" spans="1:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" ht="25" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2008,13 +2123,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2022,13 +2137,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2036,13 +2151,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2050,13 +2165,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2064,35 +2179,35 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" ht="17" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" ht="13" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" ht="152" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -274,6 +274,47 @@
     <t>健身(周六野30分钟)</t>
   </si>
   <si>
+    <t>前端: react
+听英文晨读</t>
+  </si>
+  <si>
+    <t>前端: jest
+听英文晨读</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 3
+2、每天阅读书籍半小时 0
+3、每天学习前端知识  5
+4、每天学习英文20分钟 3
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>3.14-3.20</t>
+  </si>
+  <si>
+    <t>前端: Jest</t>
+  </si>
+  <si>
+    <t>前端: hooks</t>
+  </si>
+  <si>
+    <t>前端: chrome调试技巧</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 0
+2、每天阅读书籍半小时 0
+3、每天学习前端知识  20
+4、每天学习英文20分钟 5
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>3.21-3.27</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -462,10 +503,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -514,6 +555,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -528,6 +584,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -536,6 +646,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -544,14 +677,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,98 +697,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -672,31 +713,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,145 +887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,26 +910,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,21 +975,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -957,148 +983,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1464,8 +1505,8 @@
   <sheetPr/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1830,7 +1871,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" customHeight="1" spans="1:10">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1842,6 +1883,64 @@
       </c>
       <c r="D13" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1869,7 +1968,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2285250d-2835-4209-a321-fc509a8332b5}</x14:id>
+          <x14:id>{b35be9eb-8f65-48cc-b93f-9a589bd1f4a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1881,7 +1980,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2285250d-2835-4209-a321-fc509a8332b5}">
+          <x14:cfRule type="dataBar" id="{b35be9eb-8f65-48cc-b93f-9a589bd1f4a7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1920,19 +2019,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -1940,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1957,13 +2056,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -1974,13 +2073,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1991,13 +2090,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2008,10 +2107,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2022,13 +2121,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2039,13 +2138,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2056,13 +2155,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2092,16 +2191,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2109,13 +2208,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2123,13 +2222,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2137,13 +2236,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2151,13 +2250,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2165,13 +2264,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2179,13 +2278,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -2193,21 +2292,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -196,7 +196,7 @@
   </si>
   <si>
     <t>前端(输入url到渲染)
-健身(周六野40分钟)
+健身(帕梅拉40分钟)
 英语(听单词)</t>
   </si>
   <si>
@@ -234,7 +234,7 @@
   </si>
   <si>
     <t>前端:Redux
-健身(周六野40分钟)</t>
+健身(帕梅拉40分钟)</t>
   </si>
   <si>
     <t>1、每天至少半小时健身塑形 3
@@ -250,13 +250,13 @@
   </si>
   <si>
     <t>前端:React
-健身(周六野40分钟)</t>
+健身(帕梅拉40分钟)</t>
   </si>
   <si>
     <t>前端:React</t>
   </si>
   <si>
-    <t>健身(周六野40分钟)</t>
+    <t>健身(帕梅拉40分钟)</t>
   </si>
   <si>
     <t>1、每天至少半小时健身塑形 18
@@ -271,7 +271,7 @@
     <t>3.07-3.13</t>
   </si>
   <si>
-    <t>健身(周六野30分钟)</t>
+    <t>健身(帕梅拉30分钟)</t>
   </si>
   <si>
     <t>前端: react
@@ -313,6 +313,51 @@
   </si>
   <si>
     <t>3.21-3.27</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 6
+2、每天阅读书籍半小时 0
+3、每天学习前端知识  6
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>3.28-4.03</t>
+  </si>
+  <si>
+    <t>前端: hooks
+听英文晨读</t>
+  </si>
+  <si>
+    <t>前端: 模块化机制
+听英文晨读</t>
+  </si>
+  <si>
+    <t>前端: tree shaking
+听英文晨读</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 6
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 16
+4、每天学习英文20分钟 16
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>4.04-4.10</t>
+  </si>
+  <si>
+    <t>前端:事件</t>
+  </si>
+  <si>
+    <t>前端:react和前端工程化</t>
+  </si>
+  <si>
+    <t>前端:uglify原理</t>
   </si>
   <si>
     <t>序号</t>
@@ -503,10 +548,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -555,22 +600,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,8 +628,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,19 +652,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,9 +676,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,14 +686,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,7 +701,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,15 +730,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,6 +758,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -725,169 +776,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,6 +955,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -921,15 +975,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,6 +1009,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -983,163 +1043,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1505,8 +1550,8 @@
   <sheetPr/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1935,12 +1980,88 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:2">
+    <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>65</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
@@ -1968,7 +2089,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b35be9eb-8f65-48cc-b93f-9a589bd1f4a7}</x14:id>
+          <x14:id>{1856cc83-b2e7-4257-8f40-aa41121fe69d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1980,7 +2101,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b35be9eb-8f65-48cc-b93f-9a589bd1f4a7}">
+          <x14:cfRule type="dataBar" id="{1856cc83-b2e7-4257-8f40-aa41121fe69d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2019,19 +2140,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2039,13 +2160,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2056,13 +2177,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2073,13 +2194,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2090,13 +2211,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2107,10 +2228,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2121,13 +2242,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2138,13 +2259,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2155,13 +2276,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2191,16 +2312,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2208,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2222,13 +2343,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2236,13 +2357,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2250,13 +2371,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2264,13 +2385,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2278,13 +2399,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -2292,21 +2413,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -360,6 +360,74 @@
     <t>前端:uglify原理</t>
   </si>
   <si>
+    <t>1、每天至少半小时健身塑形 0
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 16
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>4.11-4.17</t>
+  </si>
+  <si>
+    <t>英语: 单词记忆
+前端:babel原理</t>
+  </si>
+  <si>
+    <t>英语: 单词记忆
+前端:webpack打包</t>
+  </si>
+  <si>
+    <t>英语: 单词记忆
+前端: webpack打包</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 0
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 13
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>4.18-4.24</t>
+  </si>
+  <si>
+    <t>英语: 单词记忆
+前端:webpack工作流程</t>
+  </si>
+  <si>
+    <t>英语: 单词记忆
+前端:插件的封装</t>
+  </si>
+  <si>
+    <t>打羽毛球</t>
+  </si>
+  <si>
+    <t>前端:webpack插件机制</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 5
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 15
+4、每天学习英文20分钟 5
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>4.25-5.01</t>
+  </si>
+  <si>
+    <t>前端:es6-class的基本用法</t>
+  </si>
+  <si>
+    <t>前端: es6-class的继承</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -548,12 +616,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,30 +652,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,7 +676,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,30 +707,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,6 +736,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,14 +752,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,21 +797,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,175 +824,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,17 +1009,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,21 +1041,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,6 +1089,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1046,152 +1106,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1219,9 +1279,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1548,10 +1605,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1601,7 +1658,7 @@
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="9" t="s">
@@ -1685,7 +1742,7 @@
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>0.22</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -1717,7 +1774,7 @@
       <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>0.22</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -1749,7 +1806,7 @@
       <c r="H7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>0.1</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1781,7 +1838,7 @@
       <c r="H8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>0.1</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -2044,7 +2101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
@@ -2063,18 +2120,105 @@
       <c r="F17" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:3">
-      <c r="C20" s="10"/>
-    </row>
-    <row r="26" customHeight="1" spans="9:9">
-      <c r="I26" s="12"/>
+      <c r="G17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="9:9">
+      <c r="I25" s="11"/>
+    </row>
+    <row r="33" customHeight="1" spans="9:9">
+      <c r="I33" s="11"/>
     </row>
     <row r="34" customHeight="1" spans="9:9">
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" customHeight="1" spans="9:9">
-      <c r="I35" s="12"/>
+      <c r="I34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2089,7 +2233,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1856cc83-b2e7-4257-8f40-aa41121fe69d}</x14:id>
+          <x14:id>{9326527a-0465-4f98-9e92-f3f9bc55a314}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2101,7 +2245,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1856cc83-b2e7-4257-8f40-aa41121fe69d}">
+          <x14:cfRule type="dataBar" id="{9326527a-0465-4f98-9e92-f3f9bc55a314}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2140,19 +2284,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2160,13 +2304,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2177,13 +2321,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2194,13 +2338,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2211,13 +2355,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2228,10 +2372,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2242,13 +2386,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2259,13 +2403,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2276,13 +2420,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2312,16 +2456,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2329,13 +2473,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2343,13 +2487,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2357,13 +2501,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2371,13 +2515,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2385,13 +2529,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2399,13 +2543,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -2413,21 +2557,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="27980" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -428,6 +428,47 @@
     <t>前端: es6-class的继承</t>
   </si>
   <si>
+    <t>前端: web3.js</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 2
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 10
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>5.02-5.08</t>
+  </si>
+  <si>
+    <t>跳绳</t>
+  </si>
+  <si>
+    <t>前端: es6
+跳操</t>
+  </si>
+  <si>
+    <t>前端: ts
+跳操</t>
+  </si>
+  <si>
+    <t>跳操,跳绳</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 15
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 5
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>5.09-5.15</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -617,8 +658,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -653,37 +694,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,11 +714,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -709,6 +735,28 @@
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -752,17 +800,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,15 +821,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,7 +838,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,25 +865,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,133 +1021,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,38 +1050,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,168 +1115,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1607,8 +1648,8 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2197,7 +2238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
+    <row r="20" customHeight="1" spans="1:10">
       <c r="A20" s="5" t="s">
         <v>90</v>
       </c>
@@ -2209,6 +2250,61 @@
       </c>
       <c r="D20" s="6" t="s">
         <v>92</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:10">
+      <c r="A21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:1">
+      <c r="A22" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="9:9">
@@ -2233,7 +2329,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9326527a-0465-4f98-9e92-f3f9bc55a314}</x14:id>
+          <x14:id>{357a3614-5b2b-46d8-ac10-4acda8d6c4f3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2245,7 +2341,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9326527a-0465-4f98-9e92-f3f9bc55a314}">
+          <x14:cfRule type="dataBar" id="{357a3614-5b2b-46d8-ac10-4acda8d6c4f3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2284,19 +2380,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2304,13 +2400,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2321,13 +2417,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2338,13 +2434,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2355,13 +2451,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2372,10 +2468,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2386,13 +2482,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2403,13 +2499,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2420,13 +2516,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2456,16 +2552,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2473,13 +2569,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2487,13 +2583,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2501,13 +2597,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2515,13 +2611,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2529,13 +2625,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2543,13 +2639,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -2557,21 +2653,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27980" windowHeight="13420"/>
+    <workbookView windowWidth="27940" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -469,6 +469,32 @@
     <t>5.09-5.15</t>
   </si>
   <si>
+    <t>前端: ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前端: ts
+</t>
+  </si>
+  <si>
+    <t>健身房锻炼</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 20
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 10
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>5.16-5.22</t>
+  </si>
+  <si>
+    <t>前端: ts
+体测</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -657,8 +683,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -701,53 +727,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,11 +747,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -773,6 +774,22 @@
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -791,25 +808,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,20 +848,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -859,25 +885,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,25 +999,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,121 +1029,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,19 +1082,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1085,6 +1119,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,10 +1149,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1129,163 +1170,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1649,7 +1675,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2302,9 +2328,50 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:1">
+    <row r="22" customHeight="1" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>101</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="9:9">
@@ -2329,7 +2396,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{357a3614-5b2b-46d8-ac10-4acda8d6c4f3}</x14:id>
+          <x14:id>{01fa2a85-9996-42a1-9e1e-6c549b24399d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2341,7 +2408,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{357a3614-5b2b-46d8-ac10-4acda8d6c4f3}">
+          <x14:cfRule type="dataBar" id="{01fa2a85-9996-42a1-9e1e-6c549b24399d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2380,19 +2447,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2400,13 +2467,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2417,13 +2484,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2434,13 +2501,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2451,13 +2518,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2468,10 +2535,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2482,13 +2549,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2499,13 +2566,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2516,13 +2583,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2552,16 +2619,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2569,13 +2636,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2583,13 +2650,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2597,13 +2664,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2611,13 +2678,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2625,13 +2692,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2639,13 +2706,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -2653,21 +2720,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="13420"/>
+    <workbookView windowWidth="27960" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -493,6 +493,13 @@
   <si>
     <t>前端: ts
 体测</t>
+  </si>
+  <si>
+    <t>前端: ts
+健身房锻炼</t>
+  </si>
+  <si>
+    <t>前端: ts, web3</t>
   </si>
   <si>
     <t>序号</t>
@@ -720,9 +727,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -734,7 +749,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,6 +757,77 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -762,49 +848,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,50 +863,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -885,6 +892,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -897,49 +1036,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,115 +1066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,8 +1083,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,13 +1119,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,24 +1151,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,165 +1169,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1675,7 +1682,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2360,7 +2367,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
+    <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>106</v>
       </c>
@@ -2371,7 +2378,13 @@
         <v>107</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>102</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="9:9">
@@ -2396,7 +2409,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{01fa2a85-9996-42a1-9e1e-6c549b24399d}</x14:id>
+          <x14:id>{96a1110b-89d4-4a6d-9b55-d849cf0a76a6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2408,7 +2421,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{01fa2a85-9996-42a1-9e1e-6c549b24399d}">
+          <x14:cfRule type="dataBar" id="{96a1110b-89d4-4a6d-9b55-d849cf0a76a6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2447,19 +2460,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2467,13 +2480,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2484,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2501,13 +2514,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2518,13 +2531,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2535,10 +2548,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2549,13 +2562,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2566,13 +2579,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2583,13 +2596,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2619,16 +2632,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2636,13 +2649,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2650,13 +2663,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
         <v>143</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2664,13 +2677,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2678,13 +2691,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2692,13 +2705,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2706,13 +2719,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s">
         <v>150</v>
-      </c>
-      <c r="C7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -2720,21 +2733,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -502,6 +502,37 @@
     <t>前端: ts, web3</t>
   </si>
   <si>
+    <t>1、每天至少半小时健身塑形 20
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 15
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>5.23-5.29</t>
+  </si>
+  <si>
+    <t>前端:web3项目</t>
+  </si>
+  <si>
+    <t>前端:web3项目
+打羽毛球</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 5
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 15
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>5.30-6.05</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -690,10 +721,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -727,17 +758,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,7 +772,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,22 +780,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -794,6 +801,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -802,9 +854,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,8 +877,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,43 +907,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -892,25 +923,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,37 +1043,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,25 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,79 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,23 +1114,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,159 +1185,174 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1681,8 +1712,8 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2367,7 +2398,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" customHeight="1" spans="1:10">
       <c r="A23" s="5" t="s">
         <v>106</v>
       </c>
@@ -2386,8 +2417,58 @@
       <c r="F23" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="9:9">
+      <c r="G23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:10">
+      <c r="A24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="I25" s="11"/>
     </row>
     <row r="33" customHeight="1" spans="9:9">
@@ -2409,7 +2490,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{96a1110b-89d4-4a6d-9b55-d849cf0a76a6}</x14:id>
+          <x14:id>{0629b2a6-2d6d-4fe0-90c6-b1b52b6b74a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2421,7 +2502,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{96a1110b-89d4-4a6d-9b55-d849cf0a76a6}">
+          <x14:cfRule type="dataBar" id="{0629b2a6-2d6d-4fe0-90c6-b1b52b6b74a7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2460,19 +2541,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2480,13 +2561,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2497,13 +2578,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2514,13 +2595,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2531,13 +2612,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2548,10 +2629,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2562,13 +2643,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2579,13 +2660,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2596,13 +2677,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2632,16 +2713,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2649,13 +2730,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2663,13 +2744,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2677,13 +2758,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2691,13 +2772,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2705,13 +2786,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2719,13 +2800,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -2733,21 +2814,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="27920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -533,6 +533,23 @@
     <t>5.30-6.05</t>
   </si>
   <si>
+    <t>前端:web3项目
+打羽毛球
+打羽毛球</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 10
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 15
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>6.06-6.12</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -721,10 +738,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -765,16 +782,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -787,15 +805,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,21 +849,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -838,32 +856,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,10 +872,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -894,15 +903,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,181 +940,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,6 +1137,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1131,6 +1177,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,192 +1225,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1712,8 +1729,8 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2462,14 +2479,45 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:9">
+    <row r="25" customHeight="1" spans="1:10">
       <c r="A25" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I25" s="11"/>
+      <c r="C25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="33" customHeight="1" spans="9:9">
       <c r="I33" s="11"/>
@@ -2490,7 +2538,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0629b2a6-2d6d-4fe0-90c6-b1b52b6b74a7}</x14:id>
+          <x14:id>{c31fbb4c-164d-4159-82f8-1c1ce98bc2f0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2502,7 +2550,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0629b2a6-2d6d-4fe0-90c6-b1b52b6b74a7}">
+          <x14:cfRule type="dataBar" id="{c31fbb4c-164d-4159-82f8-1c1ce98bc2f0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2541,19 +2589,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2561,13 +2609,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2578,13 +2626,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2595,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2612,13 +2660,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2629,10 +2677,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2643,13 +2691,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2660,13 +2708,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2677,13 +2725,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2713,16 +2761,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2730,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2744,13 +2792,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2758,13 +2806,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
         <v>152</v>
-      </c>
-      <c r="C4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2772,13 +2820,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2786,13 +2834,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2800,13 +2848,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" t="s">
         <v>159</v>
-      </c>
-      <c r="D7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -2814,21 +2862,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -550,6 +550,10 @@
     <t>6.06-6.12</t>
   </si>
   <si>
+    <t>前端:web3项目
+web3学习</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -738,8 +742,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -788,11 +792,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -800,6 +803,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,13 +821,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -826,9 +829,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,33 +898,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,32 +914,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,103 +956,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,61 +1112,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,6 +1141,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1146,11 +1165,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,21 +1202,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,174 +1221,153 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1730,7 +1734,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2511,12 +2515,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:2">
+    <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>112</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="9:9">
@@ -2538,7 +2551,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c31fbb4c-164d-4159-82f8-1c1ce98bc2f0}</x14:id>
+          <x14:id>{f2d68406-4f25-47f9-814e-12aa6c61c0ca}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2550,7 +2563,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c31fbb4c-164d-4159-82f8-1c1ce98bc2f0}">
+          <x14:cfRule type="dataBar" id="{f2d68406-4f25-47f9-814e-12aa6c61c0ca}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2589,19 +2602,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2609,13 +2622,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2626,13 +2639,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2643,13 +2656,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2660,13 +2673,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2677,10 +2690,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2691,13 +2704,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2708,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2725,13 +2738,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2761,16 +2774,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2778,13 +2791,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2792,13 +2805,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
         <v>153</v>
-      </c>
-      <c r="C3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2806,13 +2819,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2820,13 +2833,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2834,13 +2847,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
         <v>160</v>
-      </c>
-      <c r="C6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2848,13 +2861,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -2862,21 +2875,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -742,10 +742,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -792,37 +792,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -837,9 +808,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,16 +870,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,15 +908,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,16 +922,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,175 +950,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,6 +1141,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1152,15 +1185,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,169 +1229,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1734,7 +1734,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2515,7 +2515,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:5">
+    <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>118</v>
       </c>
@@ -2529,6 +2529,9 @@
         <v>112</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2551,7 +2554,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f2d68406-4f25-47f9-814e-12aa6c61c0ca}</x14:id>
+          <x14:id>{c2f01d31-4e67-41f8-a025-ed99a8b89574}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2563,7 +2566,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f2d68406-4f25-47f9-814e-12aa6c61c0ca}">
+          <x14:cfRule type="dataBar" id="{c2f01d31-4e67-41f8-a025-ed99a8b89574}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27920" windowHeight="13420"/>
+    <workbookView windowWidth="27960" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -554,6 +554,18 @@
 web3学习</t>
   </si>
   <si>
+    <t>1、每天至少半小时健身塑形 0
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 15
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>6.13-6.19</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -742,9 +754,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -786,17 +798,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -808,16 +819,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,18 +849,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -862,9 +865,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,14 +897,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,14 +918,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -914,16 +925,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,25 +956,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,151 +1130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,31 +1157,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,17 +1177,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,108 +1205,136 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1331,46 +1343,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1733,8 +1745,8 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2515,7 +2527,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="5" t="s">
         <v>118</v>
       </c>
@@ -2532,6 +2544,26 @@
         <v>119</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2554,7 +2586,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c2f01d31-4e67-41f8-a025-ed99a8b89574}</x14:id>
+          <x14:id>{6f1c22c1-7698-4617-9e48-b074a907a99d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2566,7 +2598,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c2f01d31-4e67-41f8-a025-ed99a8b89574}">
+          <x14:cfRule type="dataBar" id="{6f1c22c1-7698-4617-9e48-b074a907a99d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2605,19 +2637,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2625,13 +2657,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2642,13 +2674,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2659,13 +2691,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2676,13 +2708,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2693,10 +2725,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2707,13 +2739,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2724,13 +2756,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2741,13 +2773,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2777,16 +2809,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2794,13 +2826,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2808,13 +2840,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
         <v>155</v>
-      </c>
-      <c r="D3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2822,13 +2854,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2836,13 +2868,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2850,13 +2882,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2864,13 +2896,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
         <v>162</v>
-      </c>
-      <c r="C7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -2878,21 +2910,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -533,9 +533,9 @@
     <t>5.30-6.05</t>
   </si>
   <si>
-    <t>前端:web3项目
+    <t xml:space="preserve">前端:web3项目
 打羽毛球
-打羽毛球</t>
+</t>
   </si>
   <si>
     <t>1、每天至少半小时健身塑形 10
@@ -564,6 +564,32 @@
   </si>
   <si>
     <t>6.13-6.19</t>
+  </si>
+  <si>
+    <t>前端:web3项目
+ts</t>
+  </si>
+  <si>
+    <t>6.20-6.26</t>
+  </si>
+  <si>
+    <t>ts学习</t>
+  </si>
+  <si>
+    <t>ts学习
+打羽毛球</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 10
+2、每天阅读书籍半小时 5
+3、每天学习前端知识 10
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>6.27-7.03</t>
   </si>
   <si>
     <t>序号</t>
@@ -754,10 +780,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -791,21 +817,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,8 +838,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,6 +865,28 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -865,16 +914,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,15 +954,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,29 +966,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -962,7 +988,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,43 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,91 +1138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,19 +1156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,15 +1167,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1179,35 +1196,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,16 +1233,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1244,148 +1270,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1745,8 +1771,8 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2559,12 +2585,76 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:2">
+    <row r="27" customHeight="1" spans="1:10">
       <c r="A27" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>119</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:10">
+      <c r="A28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="9:9">
@@ -2586,7 +2676,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6f1c22c1-7698-4617-9e48-b074a907a99d}</x14:id>
+          <x14:id>{28302306-5e27-4730-919d-2861464ea60d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2598,7 +2688,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6f1c22c1-7698-4617-9e48-b074a907a99d}">
+          <x14:cfRule type="dataBar" id="{28302306-5e27-4730-919d-2861464ea60d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2637,19 +2727,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2657,13 +2747,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2674,13 +2764,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2691,13 +2781,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2708,13 +2798,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2725,10 +2815,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2739,13 +2829,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2756,13 +2846,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2773,13 +2863,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2809,16 +2899,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2826,13 +2916,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2840,13 +2930,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2854,13 +2944,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2868,13 +2958,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2882,13 +2972,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2896,13 +2986,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -2910,21 +3000,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -592,6 +592,9 @@
     <t>6.27-7.03</t>
   </si>
   <si>
+    <t>react学习</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -780,10 +783,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -824,10 +827,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -835,6 +845,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -854,22 +871,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,6 +910,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,7 +955,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -907,65 +963,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -988,7 +991,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,31 +1081,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,19 +1105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,25 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,43 +1135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,25 +1153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,46 +1177,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,6 +1199,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1247,8 +1220,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,151 +1255,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1772,7 +1775,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2649,12 +2652,18 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:2">
+    <row r="29" customHeight="1" spans="1:4">
       <c r="A29" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>124</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="9:9">
@@ -2676,7 +2685,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28302306-5e27-4730-919d-2861464ea60d}</x14:id>
+          <x14:id>{77c8e386-b4e1-41d5-8138-ac22cfb88403}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2688,7 +2697,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{28302306-5e27-4730-919d-2861464ea60d}">
+          <x14:cfRule type="dataBar" id="{77c8e386-b4e1-41d5-8138-ac22cfb88403}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2727,19 +2736,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2747,13 +2756,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2764,13 +2773,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2781,13 +2790,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2798,13 +2807,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2815,10 +2824,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2829,13 +2838,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2846,13 +2855,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2863,13 +2872,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2899,16 +2908,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2916,13 +2925,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2930,13 +2939,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
         <v>162</v>
-      </c>
-      <c r="C3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2944,13 +2953,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2958,13 +2967,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2972,13 +2981,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" t="s">
         <v>169</v>
-      </c>
-      <c r="C6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2986,13 +2995,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3000,21 +3009,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="27940" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -595,6 +595,18 @@
     <t>react学习</t>
   </si>
   <si>
+    <t>1、每天至少半小时健身塑形 15
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 10
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>7.04-7.10</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -783,9 +795,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -820,24 +832,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -845,13 +857,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -864,45 +869,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,13 +885,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,30 +900,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -969,6 +928,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -985,7 +997,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,169 +1171,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,23 +1188,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,41 +1199,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,151 +1232,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1774,8 +1786,8 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2652,7 +2664,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:4">
+    <row r="29" customHeight="1" spans="1:10">
       <c r="A29" s="5" t="s">
         <v>127</v>
       </c>
@@ -2664,6 +2676,35 @@
       </c>
       <c r="D29" s="6" t="s">
         <v>128</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="9:9">
@@ -2685,7 +2726,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{77c8e386-b4e1-41d5-8138-ac22cfb88403}</x14:id>
+          <x14:id>{0b994ac6-dece-4780-88ba-c20c5642b0cd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2697,7 +2738,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{77c8e386-b4e1-41d5-8138-ac22cfb88403}">
+          <x14:cfRule type="dataBar" id="{0b994ac6-dece-4780-88ba-c20c5642b0cd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2736,19 +2777,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2756,13 +2797,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2773,13 +2814,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2790,13 +2831,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2807,13 +2848,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2824,10 +2865,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2838,13 +2879,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2855,13 +2896,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2872,13 +2913,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2908,16 +2949,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2925,13 +2966,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2939,13 +2980,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
         <v>164</v>
-      </c>
-      <c r="D3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2953,13 +2994,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2967,13 +3008,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2981,13 +3022,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2995,13 +3036,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" t="s">
         <v>171</v>
-      </c>
-      <c r="C7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3009,21 +3050,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="13420"/>
+    <workbookView windowWidth="27960" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -795,10 +795,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -832,13 +832,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -853,13 +846,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -868,31 +854,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,25 +877,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -937,9 +906,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,18 +943,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -981,6 +973,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -997,7 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,7 +1015,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,13 +1111,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,133 +1171,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,8 +1188,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,8 +1197,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,17 +1233,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,15 +1253,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1285,148 +1285,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1787,7 +1787,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2696,7 +2696,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:3">
+    <row r="30" customHeight="1" spans="1:4">
       <c r="A30" s="5" t="s">
         <v>130</v>
       </c>
@@ -2705,6 +2705,9 @@
       </c>
       <c r="C30" s="6" t="s">
         <v>112</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="9:9">
@@ -2726,7 +2729,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0b994ac6-dece-4780-88ba-c20c5642b0cd}</x14:id>
+          <x14:id>{beaf11f2-3119-43e7-a63d-89343145420c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2738,7 +2741,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0b994ac6-dece-4780-88ba-c20c5642b0cd}">
+          <x14:cfRule type="dataBar" id="{beaf11f2-3119-43e7-a63d-89343145420c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="28800" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -607,6 +607,25 @@
     <t>7.04-7.10</t>
   </si>
   <si>
+    <t>前端:web3项目
+《我的天才女友》</t>
+  </si>
+  <si>
+    <t>第四届深圳湖南高校羽毛球联赛</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 20
+2、每天阅读书籍半小时 5
+3、每天学习前端知识 10
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>7.11-7.17</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -796,9 +815,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -832,15 +851,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -854,17 +886,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,20 +914,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -914,15 +941,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,16 +957,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,29 +1000,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1003,13 +1022,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,7 +1052,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1106,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,115 +1184,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,7 +1207,33 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1197,8 +1242,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,15 +1278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1259,174 +1295,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1786,8 +1805,8 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2696,18 +2715,41 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:4">
+    <row r="30" customHeight="1" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>113</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:1">
+      <c r="A31" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="9:9">
@@ -2729,7 +2771,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{beaf11f2-3119-43e7-a63d-89343145420c}</x14:id>
+          <x14:id>{b31cedb6-afdd-48d6-89ab-3e2d0d79596f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2741,7 +2783,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{beaf11f2-3119-43e7-a63d-89343145420c}">
+          <x14:cfRule type="dataBar" id="{b31cedb6-afdd-48d6-89ab-3e2d0d79596f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2780,19 +2822,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2800,13 +2842,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2817,13 +2859,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2834,13 +2876,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2851,13 +2893,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2868,10 +2910,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2882,13 +2924,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2899,13 +2941,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2916,13 +2958,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2952,16 +2994,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -2969,13 +3011,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2983,13 +3025,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2997,13 +3039,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
         <v>168</v>
-      </c>
-      <c r="D4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3011,13 +3053,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3025,13 +3067,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
         <v>172</v>
       </c>
-      <c r="C6" t="s">
-        <v>168</v>
-      </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3039,13 +3081,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3053,21 +3095,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" t="s">
         <v>175</v>
-      </c>
-      <c r="C8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920"/>
+    <workbookView windowWidth="27940" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -626,6 +626,50 @@
     <t>7.11-7.17</t>
   </si>
   <si>
+    <t>前端:typescript
+《我的天才女友》</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 20
+2、每天阅读书籍半小时 8
+3、每天学习前端知识 10
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>7.18-7.24</t>
+  </si>
+  <si>
+    <t>7.25-7.31</t>
+  </si>
+  <si>
+    <t>《我的天才女友》</t>
+  </si>
+  <si>
+    <t>8.01-8.07</t>
+  </si>
+  <si>
+    <t>electron学习
+打羽毛球</t>
+  </si>
+  <si>
+    <t>electron学习</t>
+  </si>
+  <si>
+    <t>打羽毛球
+《我的天才女友》</t>
+  </si>
+  <si>
+    <t>8.08-8.14</t>
+  </si>
+  <si>
+    <t>electron学习
+学习羽毛球
+《我的天才女友》</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -815,8 +859,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -857,8 +901,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,10 +916,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -886,34 +953,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -941,11 +985,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,45 +1031,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,31 +1060,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,25 +1084,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,19 +1132,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,85 +1204,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,6 +1257,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1228,22 +1281,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1278,21 +1326,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1301,148 +1334,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1803,10 +1847,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2747,16 +2791,144 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:1">
+    <row r="31" customHeight="1" spans="1:10">
       <c r="A31" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="9:9">
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" customHeight="1" spans="9:9">
-      <c r="I34" s="11"/>
+      <c r="B31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:10">
+      <c r="A32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:10">
+      <c r="A33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:10">
+      <c r="A34" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2771,7 +2943,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b31cedb6-afdd-48d6-89ab-3e2d0d79596f}</x14:id>
+          <x14:id>{d5a92038-ae28-45a3-8fb7-175d78546694}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2783,7 +2955,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b31cedb6-afdd-48d6-89ab-3e2d0d79596f}">
+          <x14:cfRule type="dataBar" id="{d5a92038-ae28-45a3-8fb7-175d78546694}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2822,19 +2994,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -2842,13 +3014,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2859,13 +3031,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2876,13 +3048,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2893,13 +3065,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2910,10 +3082,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -2924,13 +3096,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2941,13 +3113,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2958,13 +3130,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -2994,16 +3166,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3011,13 +3183,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3025,13 +3197,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3039,13 +3211,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3053,13 +3225,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3067,13 +3239,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3081,13 +3253,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3095,21 +3267,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="13420"/>
+    <workbookView windowWidth="27960" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -670,6 +670,43 @@
 《我的天才女友》</t>
   </si>
   <si>
+    <t>electron学习
+打羽毛球
+《我的天才女友》</t>
+  </si>
+  <si>
+    <t>electron学习
+《我的天才女友》</t>
+  </si>
+  <si>
+    <t>打羽毛球
+《三体》</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 20
+2、每天阅读书籍半小时 18
+3、每天学习前端知识 15
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>8.15-8.21</t>
+  </si>
+  <si>
+    <t>electron学习
+web3项目</t>
+  </si>
+  <si>
+    <t>打羽毛球
+web3项目</t>
+  </si>
+  <si>
+    <t>web3项目
+electron学习</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -858,10 +895,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -901,26 +938,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -938,6 +959,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -945,9 +974,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,7 +1024,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,25 +1067,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1020,28 +1079,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1066,12 +1103,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1090,25 +1121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,13 +1145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,19 +1157,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,7 +1187,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,31 +1211,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,19 +1241,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,15 +1294,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1277,6 +1305,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,6 +1350,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1325,168 +1382,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1847,10 +1884,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2919,7 +2956,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:3">
+    <row r="35" customHeight="1" spans="1:10">
       <c r="A35" s="5" t="s">
         <v>144</v>
       </c>
@@ -2927,7 +2964,42 @@
         <v>145</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2943,7 +3015,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d5a92038-ae28-45a3-8fb7-175d78546694}</x14:id>
+          <x14:id>{2b6f0bbc-b82d-4d24-89be-78642cdff13a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2955,7 +3027,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d5a92038-ae28-45a3-8fb7-175d78546694}">
+          <x14:cfRule type="dataBar" id="{2b6f0bbc-b82d-4d24-89be-78642cdff13a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2994,19 +3066,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3014,13 +3086,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3031,13 +3103,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3048,13 +3120,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3065,13 +3137,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3082,10 +3154,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3096,13 +3168,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3113,13 +3185,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3130,13 +3202,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3166,16 +3238,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3183,13 +3255,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3197,13 +3269,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3211,13 +3283,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3225,13 +3297,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3239,13 +3311,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3253,13 +3325,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3267,21 +3339,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="27940" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -707,6 +707,32 @@
 electron学习</t>
   </si>
   <si>
+    <t>web3项目</t>
+  </si>
+  <si>
+    <t>8.22-8.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web3项目
+</t>
+  </si>
+  <si>
+    <t>web3项目
+hooks
+打羽毛球</t>
+  </si>
+  <si>
+    <t>web3项目
+hooks</t>
+  </si>
+  <si>
+    <t>web3项目
+微前端</t>
+  </si>
+  <si>
+    <t>8.29-9.04</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -895,10 +921,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -932,7 +958,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,7 +972,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,9 +985,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,6 +1016,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -984,23 +1041,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,52 +1056,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,11 +1079,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1097,73 +1123,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1159,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1189,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,7 +1261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,13 +1273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,37 +1297,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,21 +1320,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1316,6 +1327,54 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1336,197 +1395,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1884,10 +1910,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2988,7 +3014,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:4">
+    <row r="36" customHeight="1" spans="1:10">
       <c r="A36" s="5" t="s">
         <v>150</v>
       </c>
@@ -3000,6 +3026,70 @@
       </c>
       <c r="D36" s="6" t="s">
         <v>153</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:10">
+      <c r="A37" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3015,7 +3105,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2b6f0bbc-b82d-4d24-89be-78642cdff13a}</x14:id>
+          <x14:id>{6ffff040-e01a-4779-bfbc-356290d07de4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3027,7 +3117,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2b6f0bbc-b82d-4d24-89be-78642cdff13a}">
+          <x14:cfRule type="dataBar" id="{6ffff040-e01a-4779-bfbc-356290d07de4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3066,19 +3156,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3086,13 +3176,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3103,13 +3193,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3120,13 +3210,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3137,13 +3227,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3154,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3168,13 +3258,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3185,13 +3275,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3202,13 +3292,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3238,16 +3328,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3255,13 +3345,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3269,13 +3359,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3283,13 +3373,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3297,13 +3387,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3311,13 +3401,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3325,13 +3415,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3339,21 +3429,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="13420"/>
+    <workbookView windowWidth="27960" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -733,6 +733,29 @@
     <t>8.29-9.04</t>
   </si>
   <si>
+    <t>1、每天至少半小时健身塑形 0
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 10
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>9.05-9.11</t>
+  </si>
+  <si>
+    <t>web3项目
+前端面试</t>
+  </si>
+  <si>
+    <t>微前端</t>
+  </si>
+  <si>
+    <t>微前端
+打羽毛球</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -923,8 +946,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -958,7 +981,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,17 +994,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -993,16 +1017,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,7 +1033,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1024,39 +1041,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1080,7 +1065,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,16 +1116,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,19 +1146,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,19 +1182,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,7 +1206,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,25 +1260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,7 +1272,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,73 +1308,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,17 +1339,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1372,6 +1384,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1411,148 +1434,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1910,10 +1933,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3078,7 +3101,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:4">
+    <row r="38" customHeight="1" spans="1:10">
       <c r="A38" s="5" t="s">
         <v>160</v>
       </c>
@@ -3090,6 +3113,44 @@
       </c>
       <c r="D38" s="6" t="s">
         <v>159</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:6">
+      <c r="A39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +3166,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6ffff040-e01a-4779-bfbc-356290d07de4}</x14:id>
+          <x14:id>{67b9d0ef-cac3-490e-916c-dad8d824a4c4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3117,7 +3178,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6ffff040-e01a-4779-bfbc-356290d07de4}">
+          <x14:cfRule type="dataBar" id="{67b9d0ef-cac3-490e-916c-dad8d824a4c4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3156,19 +3217,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3176,13 +3237,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3193,13 +3254,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3210,13 +3271,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3227,13 +3288,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3244,10 +3305,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3258,13 +3319,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3275,13 +3336,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3292,13 +3353,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3328,16 +3389,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3345,13 +3406,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3359,13 +3420,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3373,13 +3434,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3387,13 +3448,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3401,13 +3462,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3415,13 +3476,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3429,21 +3490,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
         <v>206</v>
-      </c>
-      <c r="D8" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -756,6 +756,12 @@
 打羽毛球</t>
   </si>
   <si>
+    <t>9.12-9.18</t>
+  </si>
+  <si>
+    <t>前端面试</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -944,10 +950,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -981,7 +987,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,17 +1001,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1017,16 +1016,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,8 +1031,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1051,6 +1056,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,19 +1084,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1091,13 +1096,6 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1109,18 +1107,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1146,7 +1152,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,19 +1200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,13 +1212,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,7 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,19 +1254,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,61 +1296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,13 +1320,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,8 +1343,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1392,190 +1437,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1933,10 +1939,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3133,7 +3139,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:6">
+    <row r="39" customHeight="1" spans="1:10">
       <c r="A39" s="5" t="s">
         <v>162</v>
       </c>
@@ -3151,6 +3157,29 @@
       </c>
       <c r="F39" s="6" t="s">
         <v>165</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3195,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67b9d0ef-cac3-490e-916c-dad8d824a4c4}</x14:id>
+          <x14:id>{378dd5c5-59ab-4be3-b2d4-7bd1dd4967fa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3178,7 +3207,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{67b9d0ef-cac3-490e-916c-dad8d824a4c4}">
+          <x14:cfRule type="dataBar" id="{378dd5c5-59ab-4be3-b2d4-7bd1dd4967fa}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3217,19 +3246,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3237,13 +3266,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3254,13 +3283,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3271,13 +3300,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3288,13 +3317,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3305,10 +3334,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3319,13 +3348,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3336,13 +3365,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3353,13 +3382,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3389,16 +3418,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3406,13 +3435,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3420,13 +3449,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
         <v>201</v>
-      </c>
-      <c r="D3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3434,13 +3463,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3448,13 +3477,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3462,13 +3491,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3476,13 +3505,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
         <v>208</v>
-      </c>
-      <c r="C7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3490,21 +3519,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -762,6 +762,38 @@
     <t>前端面试</t>
   </si>
   <si>
+    <t>9.19-9.25</t>
+  </si>
+  <si>
+    <t>9.26-10.02</t>
+  </si>
+  <si>
+    <t>10.03-10.09</t>
+  </si>
+  <si>
+    <t>打羽毛球
+前端搭建项目流程</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 20
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 5
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>10.10-10.16</t>
+  </si>
+  <si>
+    <t>前端搭建项目流程</t>
+  </si>
+  <si>
+    <t>前端搭建项目流程
+打羽毛球</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -952,8 +984,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -987,7 +1019,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,6 +1032,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1008,16 +1077,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,61 +1125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,10 +1139,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1115,23 +1154,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1152,31 +1184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,7 +1202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,13 +1214,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,13 +1244,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,61 +1268,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,19 +1310,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,32 +1375,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1397,17 +1420,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1427,6 +1444,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1440,148 +1472,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1939,10 +1971,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3171,7 +3203,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:3">
+    <row r="40" customHeight="1" spans="1:10">
       <c r="A40" s="5" t="s">
         <v>166</v>
       </c>
@@ -3180,6 +3212,125 @@
       </c>
       <c r="C40" s="6" t="s">
         <v>167</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:10">
+      <c r="A41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:10">
+      <c r="A42" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:10">
+      <c r="A43" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3195,7 +3346,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{378dd5c5-59ab-4be3-b2d4-7bd1dd4967fa}</x14:id>
+          <x14:id>{b9b27684-7f8b-4854-9f67-e908b15d75ee}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3207,7 +3358,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{378dd5c5-59ab-4be3-b2d4-7bd1dd4967fa}">
+          <x14:cfRule type="dataBar" id="{b9b27684-7f8b-4854-9f67-e908b15d75ee}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3246,19 +3397,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3266,13 +3417,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3283,13 +3434,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3300,13 +3451,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3317,13 +3468,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3334,10 +3485,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3348,13 +3499,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3365,13 +3516,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3382,13 +3533,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3418,16 +3569,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3435,13 +3586,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3449,13 +3600,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3463,13 +3614,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3477,13 +3628,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3491,13 +3642,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3505,13 +3656,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3519,21 +3670,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="27940" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -794,6 +794,19 @@
 打羽毛球</t>
   </si>
   <si>
+    <t>10.17-10.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微前端
+</t>
+  </si>
+  <si>
+    <t>10.24-10.30</t>
+  </si>
+  <si>
+    <t>qiankun学习</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -982,8 +995,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1019,29 +1032,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,6 +1059,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1062,24 +1083,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,6 +1115,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1117,32 +1137,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1163,7 +1169,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,7 +1197,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,13 +1239,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,37 +1311,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,25 +1341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,67 +1359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,7 +1371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,23 +1388,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,11 +1418,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1445,16 +1449,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1469,151 +1473,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1971,10 +1984,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3322,7 +3335,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:3">
+    <row r="44" customHeight="1" spans="1:10">
       <c r="A44" s="5" t="s">
         <v>173</v>
       </c>
@@ -3331,6 +3344,67 @@
       </c>
       <c r="C44" s="6" t="s">
         <v>175</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:10">
+      <c r="A45" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3346,7 +3420,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b9b27684-7f8b-4854-9f67-e908b15d75ee}</x14:id>
+          <x14:id>{01549ac0-2b05-466c-ab8b-56ed28957afb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3358,7 +3432,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b9b27684-7f8b-4854-9f67-e908b15d75ee}">
+          <x14:cfRule type="dataBar" id="{01549ac0-2b05-466c-ab8b-56ed28957afb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3397,19 +3471,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3417,13 +3491,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3434,13 +3508,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3451,13 +3525,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3468,13 +3542,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3485,10 +3559,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3499,13 +3573,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3516,13 +3590,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3533,13 +3607,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3569,16 +3643,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3586,13 +3660,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3600,13 +3674,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3614,13 +3688,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" t="s">
         <v>213</v>
-      </c>
-      <c r="D4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3628,13 +3702,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3642,13 +3716,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
         <v>217</v>
       </c>
-      <c r="C6" t="s">
-        <v>213</v>
-      </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3656,13 +3730,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3670,21 +3744,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
         <v>220</v>
-      </c>
-      <c r="C8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="13420"/>
+    <workbookView windowWidth="27960" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -807,6 +807,25 @@
     <t>qiankun学习</t>
   </si>
   <si>
+    <t>qiankun学习
+打羽毛球</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 20
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 20
+4、每天学习英文20分钟 0
+5、12点前睡觉 0
+6、每周练习吉他2次，每次至少一小时 0
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>10.31-11.06</t>
+  </si>
+  <si>
+    <t>11.07-11.13</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -995,10 +1014,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1032,9 +1051,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1042,6 +1085,21 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1059,22 +1117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1084,17 +1126,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1109,6 +1144,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,7 +1173,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1138,45 +1195,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1197,31 +1216,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,31 +1234,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,19 +1258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,7 +1276,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,7 +1336,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,55 +1372,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,8 +1407,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1411,8 +1478,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1432,201 +1501,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1984,10 +2003,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3399,11 +3418,72 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:2">
+    <row r="46" customHeight="1" spans="1:10">
       <c r="A46" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:10">
+      <c r="A47" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3420,7 +3500,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{01549ac0-2b05-466c-ab8b-56ed28957afb}</x14:id>
+          <x14:id>{dabd166f-8830-4833-bd73-ec35e10ebc89}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3432,7 +3512,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{01549ac0-2b05-466c-ab8b-56ed28957afb}">
+          <x14:cfRule type="dataBar" id="{dabd166f-8830-4833-bd73-ec35e10ebc89}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3471,19 +3551,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3491,13 +3571,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3508,13 +3588,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3525,13 +3605,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3542,13 +3622,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3559,10 +3639,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3573,13 +3653,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3590,13 +3670,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3607,13 +3687,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3643,16 +3723,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3660,13 +3740,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3674,13 +3754,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3688,13 +3768,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" t="s">
         <v>217</v>
-      </c>
-      <c r="D4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3702,13 +3782,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3716,13 +3796,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" t="s">
         <v>221</v>
       </c>
-      <c r="C6" t="s">
-        <v>217</v>
-      </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3730,13 +3810,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3744,21 +3824,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
         <v>224</v>
-      </c>
-      <c r="C8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
     <sheet name="2022计划" sheetId="8" r:id="rId2"/>
-    <sheet name="2022计划实践" sheetId="6" r:id="rId3"/>
+    <sheet name="2022上半年计划实践" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -826,6 +826,22 @@
     <t>11.07-11.13</t>
   </si>
   <si>
+    <t xml:space="preserve">qiankun学习
+</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 20
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 20
+4、每天学习英文20分钟 0
+5、12点前睡觉 5
+6、饮食清淡 5
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>11.14-11.20</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1014,10 +1030,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1059,14 +1075,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1081,13 +1089,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1095,9 +1096,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1110,8 +1110,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,14 +1150,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1143,15 +1159,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,7 +1188,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,21 +1212,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,7 +1232,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,37 +1316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,13 +1334,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,13 +1382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,79 +1406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,21 +1429,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1442,6 +1443,51 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,21 +1507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1486,163 +1517,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2003,10 +2019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3479,11 +3495,43 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:2">
+    <row r="48" customHeight="1" spans="1:10">
       <c r="A48" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3500,7 +3548,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dabd166f-8830-4833-bd73-ec35e10ebc89}</x14:id>
+          <x14:id>{3ed410a2-28e3-4b0e-b128-ea94b5d25eb4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3512,7 +3560,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dabd166f-8830-4833-bd73-ec35e10ebc89}">
+          <x14:cfRule type="dataBar" id="{3ed410a2-28e3-4b0e-b128-ea94b5d25eb4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3551,19 +3599,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3571,13 +3619,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3588,13 +3636,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3605,13 +3653,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3622,13 +3670,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3639,10 +3687,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3653,13 +3701,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3670,13 +3718,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3687,13 +3735,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3712,7 +3760,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -3723,16 +3771,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3740,13 +3788,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3754,13 +3802,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3768,13 +3816,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" t="s">
         <v>220</v>
-      </c>
-      <c r="C4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3782,13 +3830,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3796,13 +3844,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3810,13 +3858,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" t="s">
         <v>227</v>
-      </c>
-      <c r="D7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3824,21 +3872,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -842,6 +842,16 @@
     <t>11.14-11.20</t>
   </si>
   <si>
+    <t>acios封装学习
+打羽毛球</t>
+  </si>
+  <si>
+    <t>acios封装学习</t>
+  </si>
+  <si>
+    <t>Vue ui框架学习</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1030,10 +1040,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1073,11 +1083,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1089,15 +1098,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,10 +1128,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1133,17 +1143,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,7 +1176,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1180,28 +1211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1210,8 +1219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,7 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,31 +1254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,7 +1272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,49 +1290,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,7 +1320,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,7 +1356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,19 +1368,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,16 +1443,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1463,21 +1479,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1488,6 +1489,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1520,145 +1530,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2022,7 +2032,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3527,12 +3537,30 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:2">
+    <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>179</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3548,7 +3576,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3ed410a2-28e3-4b0e-b128-ea94b5d25eb4}</x14:id>
+          <x14:id>{1bd772fc-5220-49da-b79e-e5128df3d521}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3560,7 +3588,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3ed410a2-28e3-4b0e-b128-ea94b5d25eb4}">
+          <x14:cfRule type="dataBar" id="{1bd772fc-5220-49da-b79e-e5128df3d521}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3599,19 +3627,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3619,13 +3647,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3636,13 +3664,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3653,13 +3681,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3670,13 +3698,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3687,10 +3715,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3701,13 +3729,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3718,13 +3746,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3735,13 +3763,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3771,16 +3799,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3788,13 +3816,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3802,13 +3830,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3816,13 +3844,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" t="s">
         <v>223</v>
-      </c>
-      <c r="C4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3830,13 +3858,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3844,13 +3872,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3858,13 +3886,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" t="s">
         <v>230</v>
-      </c>
-      <c r="D7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3872,21 +3900,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -849,7 +849,21 @@
     <t>acios封装学习</t>
   </si>
   <si>
-    <t>Vue ui框架学习</t>
+    <t>Vue ui框架学习
+背英语单词30个
+英语阅读</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 20
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 20
+4、每天学习英文20分钟 5
+5、12点前睡觉 8
+6、饮食清淡 8
+7、每周学习理财,每周至少2小时 2</t>
+  </si>
+  <si>
+    <t>11.21-11.27</t>
   </si>
   <si>
     <t>序号</t>
@@ -1040,10 +1054,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1084,7 +1098,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1098,23 +1150,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,38 +1167,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,30 +1181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1205,7 +1197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,15 +1205,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1242,169 +1256,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,6 +1275,162 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,15 +1453,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1463,6 +1468,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1474,30 +1499,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1519,156 +1520,169 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2029,10 +2043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3537,7 +3551,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:8">
+    <row r="49" customHeight="1" spans="1:10">
       <c r="A49" s="5" t="s">
         <v>186</v>
       </c>
@@ -3561,6 +3575,17 @@
       </c>
       <c r="H49" s="6" t="s">
         <v>154</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:1">
+      <c r="A50" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3576,7 +3601,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1bd772fc-5220-49da-b79e-e5128df3d521}</x14:id>
+          <x14:id>{7563a359-eba1-4713-9b45-b9a8704cae3d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3588,7 +3613,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1bd772fc-5220-49da-b79e-e5128df3d521}">
+          <x14:cfRule type="dataBar" id="{7563a359-eba1-4713-9b45-b9a8704cae3d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3627,19 +3652,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3647,13 +3672,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3664,13 +3689,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3681,13 +3706,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3698,13 +3723,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3715,10 +3740,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3729,13 +3754,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3746,13 +3771,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3763,13 +3788,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3799,16 +3824,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3816,13 +3841,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3830,13 +3855,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" t="s">
         <v>225</v>
-      </c>
-      <c r="D3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3844,13 +3869,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3858,13 +3883,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3872,13 +3897,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3886,13 +3911,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" t="s">
         <v>232</v>
-      </c>
-      <c r="C7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3900,21 +3925,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -866,6 +866,11 @@
     <t>11.21-11.27</t>
   </si>
   <si>
+    <t>acios封装学习
+web3交互
+打羽毛球</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1055,8 +1060,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1104,6 +1109,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1111,8 +1146,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,17 +1162,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,22 +1222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1181,15 +1230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,44 +1241,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1262,13 +1267,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,157 +1435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,6 +1458,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1468,22 +1493,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1503,186 +1538,156 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2046,7 +2051,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3583,9 +3588,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:1">
+    <row r="50" customHeight="1" spans="1:3">
       <c r="A50" s="5" t="s">
         <v>191</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3601,7 +3612,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7563a359-eba1-4713-9b45-b9a8704cae3d}</x14:id>
+          <x14:id>{9d0ef17b-8649-4c07-b694-a34119be6239}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3613,7 +3624,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7563a359-eba1-4713-9b45-b9a8704cae3d}">
+          <x14:cfRule type="dataBar" id="{9d0ef17b-8649-4c07-b694-a34119be6239}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3652,19 +3663,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3672,13 +3683,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3689,13 +3700,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3706,13 +3717,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3723,13 +3734,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3740,10 +3751,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3754,13 +3765,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3771,13 +3782,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3788,13 +3799,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3824,16 +3835,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3841,13 +3852,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3855,13 +3866,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" t="s">
         <v>226</v>
-      </c>
-      <c r="C3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3869,13 +3880,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3883,13 +3894,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3897,13 +3908,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" t="s">
         <v>233</v>
-      </c>
-      <c r="C6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3911,13 +3922,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3925,21 +3936,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -868,6 +868,10 @@
   <si>
     <t>acios封装学习
 web3交互
+打羽毛球</t>
+  </si>
+  <si>
+    <t>web3项目
 打羽毛球</t>
   </si>
   <si>
@@ -1109,22 +1113,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1139,8 +1142,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1155,7 +1159,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1171,10 +1175,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1186,22 +1190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,17 +1207,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1241,6 +1224,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,13 +1265,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,13 +1289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,19 +1307,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,37 +1325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,13 +1349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,31 +1367,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,13 +1403,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,22 +1462,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1493,17 +1492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1519,6 +1512,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1542,152 +1546,152 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2051,7 +2055,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3588,7 +3592,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:3">
+    <row r="50" customHeight="1" spans="1:6">
       <c r="A50" s="5" t="s">
         <v>191</v>
       </c>
@@ -3597,6 +3601,15 @@
       </c>
       <c r="C50" s="6" t="s">
         <v>192</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3625,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9d0ef17b-8649-4c07-b694-a34119be6239}</x14:id>
+          <x14:id>{5652a3ef-a1bd-4fc6-8e8f-a21587d8d1de}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3624,7 +3637,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9d0ef17b-8649-4c07-b694-a34119be6239}">
+          <x14:cfRule type="dataBar" id="{5652a3ef-a1bd-4fc6-8e8f-a21587d8d1de}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3663,19 +3676,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3683,13 +3696,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3700,13 +3713,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3717,13 +3730,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3734,13 +3747,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3751,10 +3764,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3765,13 +3778,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3782,13 +3795,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3799,13 +3812,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3835,16 +3848,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3852,13 +3865,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3866,13 +3879,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
         <v>227</v>
-      </c>
-      <c r="C3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3880,13 +3893,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3894,13 +3907,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3908,13 +3921,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" t="s">
         <v>234</v>
-      </c>
-      <c r="C6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3922,13 +3935,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3936,21 +3949,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -867,12 +867,43 @@
   </si>
   <si>
     <t>acios封装学习
+英语阅读</t>
+  </si>
+  <si>
+    <t>acios封装学习
 web3交互
-打羽毛球</t>
+打羽毛球
+背英语单词30个</t>
+  </si>
+  <si>
+    <t>web3项目
+背英语单词30个</t>
+  </si>
+  <si>
+    <t>web3项目
+打羽毛球
+英语阅读</t>
   </si>
   <si>
     <t>web3项目
 打羽毛球</t>
+  </si>
+  <si>
+    <t>1、每天至少半小时健身塑形 20
+2、每天阅读书籍半小时 0
+3、每天学习前端知识 20
+4、每天学习英文20分钟 10
+5、12点前睡觉 5
+6、饮食清淡 8
+7、每周学习理财,每周至少2小时 0</t>
+  </si>
+  <si>
+    <t>11.28-12.04</t>
+  </si>
+  <si>
+    <t>英语阅读
+web3交互
+英语单词</t>
   </si>
   <si>
     <t>序号</t>
@@ -1063,9 +1094,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1107,7 +1138,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,15 +1227,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,106 +1280,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1265,7 +1296,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,25 +1374,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,49 +1404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,43 +1440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,31 +1458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,41 +1493,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1528,16 +1544,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,152 +1562,167 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2052,10 +2083,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3592,24 +3623,44 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:6">
+    <row r="50" customHeight="1" spans="1:10">
       <c r="A50" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>193</v>
+      <c r="H50" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3625,7 +3676,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5652a3ef-a1bd-4fc6-8e8f-a21587d8d1de}</x14:id>
+          <x14:id>{8cac1c62-3df8-4bf4-9d08-b0eed43e6e99}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3637,7 +3688,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5652a3ef-a1bd-4fc6-8e8f-a21587d8d1de}">
+          <x14:cfRule type="dataBar" id="{8cac1c62-3df8-4bf4-9d08-b0eed43e6e99}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3676,19 +3727,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3696,13 +3747,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3713,13 +3764,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3730,13 +3781,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3747,13 +3798,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3764,10 +3815,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3778,13 +3829,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3795,13 +3846,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3812,13 +3863,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3848,16 +3899,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3865,13 +3916,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3879,13 +3930,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3893,13 +3944,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3907,13 +3958,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3921,13 +3972,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3935,13 +3986,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -3949,21 +4000,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="27980" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2022周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -906,6 +906,10 @@
 英语单词</t>
   </si>
   <si>
+    <t>web3交互
+英语单词</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1094,10 +1098,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1131,13 +1135,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1152,7 +1149,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1166,31 +1163,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1204,47 +1187,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1260,6 +1220,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1267,17 +1256,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1302,13 +1306,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,7 +1384,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,145 +1468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,80 +1485,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1581,151 +1511,225 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2086,7 +2090,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3655,12 +3659,18 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:2">
+    <row r="51" customHeight="1" spans="1:4">
       <c r="A51" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>199</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3676,7 +3686,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8cac1c62-3df8-4bf4-9d08-b0eed43e6e99}</x14:id>
+          <x14:id>{e30475d8-e069-47a3-a390-c0f3f8cabe6d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3688,7 +3698,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8cac1c62-3df8-4bf4-9d08-b0eed43e6e99}">
+          <x14:cfRule type="dataBar" id="{e30475d8-e069-47a3-a390-c0f3f8cabe6d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3727,19 +3737,19 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:5">
@@ -3747,13 +3757,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3764,13 +3774,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3781,13 +3791,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3798,13 +3808,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3815,10 +3825,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -3829,13 +3839,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3846,13 +3856,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3863,13 +3873,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3899,16 +3909,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -3916,13 +3926,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3930,13 +3940,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
         <v>234</v>
-      </c>
-      <c r="C3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3944,13 +3954,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3958,13 +3968,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3972,13 +3982,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" t="s">
         <v>241</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3986,13 +3996,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" ht="13" spans="1:4">
@@ -4000,21 +4010,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" ht="124" spans="1:2">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2022年个人计划/2022年计划.xlsx
+++ b/docs/年终总结/2022年个人计划/2022年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -910,6 +910,15 @@
 英语单词</t>
   </si>
   <si>
+    <t>web3交互
+英语单词
+打羽毛球</t>
+  </si>
+  <si>
+    <t>hooks
+英语单词</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1098,9 +1107,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1135,7 +1144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,10 +1158,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1160,6 +1184,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1180,57 +1211,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1248,6 +1232,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1262,24 +1286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1300,7 +1309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,7 +1321,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,109 +1459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,43 +1477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,8 +1500,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1512,6 +1521,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1523,6 +1541,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1551,15 +1580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1574,162 +1594,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
 